--- a/チーム番号_チーム制作スケジュール.xlsx
+++ b/チーム番号_チーム制作スケジュール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simoda_e\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2109418\Documents\GitHub\LostBomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E84E4C7-513C-46A4-84C6-08B94C13D57C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B5D157-44F3-4250-9CAD-210D354DF0F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール表説明" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>12月</t>
     <rPh sb="2" eb="3">
@@ -510,6 +510,61 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>オブジェクト制作</t>
+    <rPh sb="6" eb="8">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建物制作</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木制作</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル制作</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ関連：</t>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの制作：</t>
+    <rPh sb="6" eb="8">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム関連：</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1333,6 +1388,42 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,1025 +1460,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0066FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0066FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.499984740745262"/>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF0066FF"/>
@@ -2966,50 +2061,50 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="33" width="2.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="33" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="14"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="44"/>
-    </row>
-    <row r="2" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="56"/>
+    </row>
+    <row r="2" spans="2:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3107,7 +2202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
@@ -3143,7 +2238,7 @@
       <c r="AF3" s="11"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
@@ -3183,7 +2278,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
@@ -3221,7 +2316,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +2354,7 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3299,7 +2394,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="16"/>
       <c r="D8" s="12"/>
@@ -3333,7 +2428,7 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
@@ -3369,7 +2464,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -3407,7 +2502,7 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
@@ -3445,7 +2540,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="16"/>
       <c r="D12" s="12"/>
@@ -3479,7 +2574,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
@@ -3515,7 +2610,7 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
@@ -3555,7 +2650,7 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="6"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
@@ -3593,7 +2688,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="6"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="16"/>
       <c r="D16" s="12"/>
@@ -3627,7 +2722,7 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="6"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="16"/>
       <c r="D17" s="12"/>
@@ -3661,7 +2756,7 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="16"/>
       <c r="D18" s="12"/>
@@ -3695,7 +2790,7 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="17"/>
       <c r="D19" s="13"/>
@@ -3729,689 +2824,689 @@
       <c r="AF19" s="13"/>
       <c r="AG19" s="5"/>
     </row>
-    <row r="21" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
+    <row r="21" spans="2:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B22" s="46" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B22" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="48"/>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="51"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="51"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="51"/>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="51"/>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="51"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="51"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="51"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="51"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="51"/>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="51"/>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="51"/>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="51"/>
-    </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="51"/>
-    </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="51"/>
-    </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="51"/>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="51"/>
-    </row>
-    <row r="40" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="53"/>
-      <c r="AF40" s="53"/>
-      <c r="AG40" s="54"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="60"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="63"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="63"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="63"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="63"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="63"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="63"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="63"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="63"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="63"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="63"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="63"/>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="63"/>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="63"/>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="62"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="62"/>
+      <c r="AG36" s="63"/>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="62"/>
+      <c r="AE37" s="62"/>
+      <c r="AF37" s="62"/>
+      <c r="AG37" s="63"/>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="62"/>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="63"/>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="63"/>
+    </row>
+    <row r="40" spans="2:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4421,68 +3516,68 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3:AG11 C17:AG19">
-    <cfRule type="cellIs" dxfId="110" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:AG16">
-    <cfRule type="cellIs" dxfId="107" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:AG15">
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:AG14">
-    <cfRule type="cellIs" dxfId="101" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:AG13">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AG12">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4493,82 +3588,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:AY18"/>
+  <dimension ref="B1:AY19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="4" width="8.26953125" customWidth="1"/>
-    <col min="5" max="51" width="2.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="51" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="66" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="58"/>
-    </row>
-    <row r="2" spans="2:51" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="72"/>
+    </row>
+    <row r="2" spans="2:51" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
@@ -4599,42 +3694,42 @@
       <c r="AA2" s="36"/>
       <c r="AB2" s="36"/>
       <c r="AC2" s="36"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="61" t="s">
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="59"/>
+      <c r="AV2" s="43"/>
       <c r="AW2" s="26"/>
       <c r="AX2" s="26"/>
       <c r="AY2" s="27"/>
     </row>
-    <row r="3" spans="2:51" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:51" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="46">
         <v>15</v>
       </c>
       <c r="F3" s="38">
@@ -4776,11 +3871,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="64"/>
+    <row r="4" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -4828,11 +3925,13 @@
       <c r="AX4" s="12"/>
       <c r="AY4" s="6"/>
     </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
+    <row r="5" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="64"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4880,11 +3979,13 @@
       <c r="AX5" s="12"/>
       <c r="AY5" s="6"/>
     </row>
-    <row r="6" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
+    <row r="6" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="64"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -4932,11 +4033,13 @@
       <c r="AX6" s="12"/>
       <c r="AY6" s="6"/>
     </row>
-    <row r="7" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
+    <row r="7" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -4984,11 +4087,13 @@
       <c r="AX7" s="12"/>
       <c r="AY7" s="6"/>
     </row>
-    <row r="8" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
+    <row r="8" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -5036,11 +4141,13 @@
       <c r="AX8" s="12"/>
       <c r="AY8" s="6"/>
     </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
+    <row r="9" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -5088,11 +4195,13 @@
       <c r="AX9" s="12"/>
       <c r="AY9" s="6"/>
     </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
+    <row r="10" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="64"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -5140,11 +4249,13 @@
       <c r="AX10" s="12"/>
       <c r="AY10" s="6"/>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
+    <row r="11" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -5192,11 +4303,11 @@
       <c r="AX11" s="12"/>
       <c r="AY11" s="6"/>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="32"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -5244,11 +4355,11 @@
       <c r="AX12" s="12"/>
       <c r="AY12" s="6"/>
     </row>
-    <row r="13" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="64"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -5296,73 +4407,125 @@
       <c r="AX13" s="12"/>
       <c r="AY13" s="6"/>
     </row>
-    <row r="14" spans="2:51" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="5"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="6"/>
+    </row>
+    <row r="15" spans="2:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="5"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:U1"/>
     <mergeCell ref="V1:AY1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4:AY14">
-    <cfRule type="cellIs" dxfId="92" priority="1708" operator="equal">
+  <conditionalFormatting sqref="E4:AY15">
+    <cfRule type="cellIs" dxfId="2" priority="1708" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="1709" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1709" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="1710" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1710" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/チーム番号_チーム制作スケジュール.xlsx
+++ b/チーム番号_チーム制作スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2109418\Documents\GitHub\LostBomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B5D157-44F3-4250-9CAD-210D354DF0F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009F7D8-D22B-4D0C-A214-B49ABF98F377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>12月</t>
     <rPh sb="2" eb="3">
@@ -565,6 +565,41 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>フィールドモデルの作成</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本</t>
+    <rPh sb="0" eb="2">
+      <t>マツモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹崎</t>
+    <rPh sb="0" eb="2">
+      <t>タケザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル制作</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの操作</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -751,7 +786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1252,13 +1287,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,6 +1525,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3588,13 +3639,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:AY19"/>
+  <dimension ref="B1:AY22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3927,10 +3978,10 @@
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="53"/>
+        <v>29</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="47"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -3981,7 +4032,7 @@
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="53"/>
@@ -4035,7 +4086,7 @@
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="53"/>
@@ -4089,10 +4140,14 @@
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="53"/>
+        <v>25</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="53">
+        <v>7</v>
+      </c>
       <c r="E8" s="47"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -4100,9 +4155,13 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="L8" s="12">
+        <v>2</v>
+      </c>
       <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -4143,10 +4202,14 @@
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="53"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="53">
+        <v>7</v>
+      </c>
       <c r="E9" s="47"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4154,9 +4217,13 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="L9" s="12">
+        <v>2</v>
+      </c>
       <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -4197,7 +4264,7 @@
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="53"/>
@@ -4251,7 +4318,7 @@
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="53"/>
@@ -4304,7 +4371,9 @@
       <c r="AY11" s="6"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="32"/>
       <c r="D12" s="53"/>
       <c r="E12" s="47"/>
@@ -4356,9 +4425,15 @@
       <c r="AY12" s="6"/>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B13" s="7"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="53"/>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="53">
+        <v>1</v>
+      </c>
       <c r="E13" s="47"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -4366,7 +4441,9 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="L13" s="12">
+        <v>2</v>
+      </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -4408,7 +4485,9 @@
       <c r="AY13" s="6"/>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" s="32"/>
       <c r="D14" s="53"/>
       <c r="E14" s="47"/>
@@ -4459,66 +4538,224 @@
       <c r="AX14" s="12"/>
       <c r="AY14" s="6"/>
     </row>
-    <row r="15" spans="2:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="5"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="6"/>
+    </row>
+    <row r="16" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="6"/>
+    </row>
+    <row r="17" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B17" s="7"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="6"/>
+    </row>
+    <row r="18" spans="2:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="5"/>
+    </row>
+    <row r="22" spans="2:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:U1"/>
     <mergeCell ref="V1:AY1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4:AY15">
+  <conditionalFormatting sqref="E4:AY18">
     <cfRule type="cellIs" dxfId="2" priority="1708" operator="equal">
       <formula>3</formula>
     </cfRule>
